--- a/output/results/results hierarchichal vs bisg full_sample.xlsx
+++ b/output/results/results hierarchichal vs bisg full_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamariapatron/Desktop/GRI/cascade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECC9B13-8AB6-944A-B839-254F11DCB003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47789F7-570D-FD4C-91C2-CE793DA10FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="0" windowWidth="22720" windowHeight="18000" activeTab="1" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
+    <workbookView xWindow="6080" yWindow="0" windowWidth="22720" windowHeight="18000" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
   </bookViews>
   <sheets>
     <sheet name="confusion matrix" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6381FF8D-2B62-A64E-9916-093C2BDB691A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,19 +805,10 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>2829</v>
-      </c>
-      <c r="D15">
-        <v>902</v>
-      </c>
-      <c r="E15">
-        <v>269</v>
+        <v>3853</v>
       </c>
       <c r="F15">
-        <v>604</v>
-      </c>
-      <c r="G15">
-        <v>1250</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -826,19 +817,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>31</v>
-      </c>
-      <c r="D16">
-        <v>16084</v>
-      </c>
-      <c r="E16">
-        <v>272</v>
+        <v>3131</v>
       </c>
       <c r="F16">
-        <v>1122</v>
-      </c>
-      <c r="G16">
-        <v>1153</v>
+        <v>15531</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -849,19 +831,10 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>349</v>
-      </c>
-      <c r="E17">
-        <v>7712</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>1429</v>
-      </c>
-      <c r="G17">
-        <v>2266</v>
+        <v>11688</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -870,19 +843,10 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>195</v>
-      </c>
-      <c r="D18">
-        <v>4752</v>
-      </c>
-      <c r="E18">
-        <v>10743</v>
+        <v>571</v>
       </c>
       <c r="F18">
-        <v>29894</v>
-      </c>
-      <c r="G18">
-        <v>11732</v>
+        <v>56745</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -891,19 +855,10 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>173</v>
-      </c>
-      <c r="D19">
-        <v>1227</v>
-      </c>
-      <c r="E19">
-        <v>556</v>
+        <v>595</v>
       </c>
       <c r="F19">
-        <v>2121</v>
-      </c>
-      <c r="G19">
-        <v>1353</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -952,7 +907,7 @@
         <v>2829</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>902</v>
       </c>
       <c r="E25">
         <v>269</v>
@@ -961,7 +916,7 @@
         <v>604</v>
       </c>
       <c r="G25">
-        <v>2152</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -973,7 +928,7 @@
         <v>31</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>16084</v>
       </c>
       <c r="E26">
         <v>272</v>
@@ -982,7 +937,7 @@
         <v>1122</v>
       </c>
       <c r="G26">
-        <v>17237</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -996,7 +951,7 @@
         <v>10</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>349</v>
       </c>
       <c r="E27">
         <v>7712</v>
@@ -1005,7 +960,7 @@
         <v>1429</v>
       </c>
       <c r="G27">
-        <v>2615</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1017,7 +972,7 @@
         <v>195</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4752</v>
       </c>
       <c r="E28">
         <v>10743</v>
@@ -1026,7 +981,7 @@
         <v>29894</v>
       </c>
       <c r="G28">
-        <v>16484</v>
+        <v>11732</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1038,7 +993,7 @@
         <v>173</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1227</v>
       </c>
       <c r="E29">
         <v>556</v>
@@ -1047,7 +1002,7 @@
         <v>2121</v>
       </c>
       <c r="G29">
-        <v>2580</v>
+        <v>1353</v>
       </c>
     </row>
   </sheetData>
@@ -1065,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9625C5-279F-2E41-A596-3DCFD1F5B6BF}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>

--- a/output/results/results hierarchichal vs bisg full_sample.xlsx
+++ b/output/results/results hierarchichal vs bisg full_sample.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamariapatron/Desktop/GRI/cascade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47789F7-570D-FD4C-91C2-CE793DA10FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8B03EF-5563-CF49-9D57-5FA084403E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6080" yWindow="0" windowWidth="22720" windowHeight="18000" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
   </bookViews>
   <sheets>
-    <sheet name="confusion matrix" sheetId="1" r:id="rId1"/>
-    <sheet name="metrics" sheetId="2" r:id="rId2"/>
+    <sheet name="CMcounty" sheetId="1" r:id="rId1"/>
+    <sheet name="metrics_county" sheetId="2" r:id="rId2"/>
+    <sheet name="CMtract" sheetId="3" r:id="rId3"/>
+    <sheet name="metrics_tract" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
   <si>
     <t>PREDICTED</t>
   </si>
@@ -99,10 +101,16 @@
     <t>hierarchical: multypling leafs</t>
   </si>
   <si>
-    <t>metrics for subsampe of 99 observations. County level, only surname</t>
-  </si>
-  <si>
     <t>confusion matrix for full sample. County level, only surname</t>
+  </si>
+  <si>
+    <t>metrics for fullsample. County level, only surname</t>
+  </si>
+  <si>
+    <t>confusion matrix for full sample. Tract_level, only surname</t>
+  </si>
+  <si>
+    <t>metrics for full_sample. Tract level, only surname</t>
   </si>
 </sst>
 </file>
@@ -280,6 +288,84 @@
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD5C0EDB-409D-1B48-923F-D20B3B633BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6718300" y="596900"/>
+          <a:ext cx="7086600" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>there</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -607,15 +693,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6381FF8D-2B62-A64E-9916-093C2BDB691A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,7 +1107,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1119,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1277,6 +1363,687 @@
       </c>
       <c r="D27">
         <v>7.6208178438661706E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2E7C1-6835-D54E-88BD-C2C2FC696365}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3378</v>
+      </c>
+      <c r="D5">
+        <v>659</v>
+      </c>
+      <c r="E5">
+        <v>111</v>
+      </c>
+      <c r="F5">
+        <v>1643</v>
+      </c>
+      <c r="G5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>120</v>
+      </c>
+      <c r="D6">
+        <v>15700</v>
+      </c>
+      <c r="E6">
+        <v>177</v>
+      </c>
+      <c r="F6">
+        <v>2589</v>
+      </c>
+      <c r="G6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>29</v>
+      </c>
+      <c r="D7">
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <v>5608</v>
+      </c>
+      <c r="F7">
+        <v>5988</v>
+      </c>
+      <c r="G7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>283</v>
+      </c>
+      <c r="D8">
+        <v>915</v>
+      </c>
+      <c r="E8">
+        <v>2229</v>
+      </c>
+      <c r="F8">
+        <v>53623</v>
+      </c>
+      <c r="G8">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>321</v>
+      </c>
+      <c r="D9">
+        <v>486</v>
+      </c>
+      <c r="E9">
+        <v>297</v>
+      </c>
+      <c r="F9">
+        <v>4137</v>
+      </c>
+      <c r="G9">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>4039</v>
+      </c>
+      <c r="F15">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3048</v>
+      </c>
+      <c r="F16">
+        <v>15614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="F17">
+        <v>11616</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>752</v>
+      </c>
+      <c r="F18">
+        <v>56564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>617</v>
+      </c>
+      <c r="F19">
+        <v>4813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>2850</v>
+      </c>
+      <c r="D25">
+        <v>984</v>
+      </c>
+      <c r="E25">
+        <v>210</v>
+      </c>
+      <c r="F25">
+        <v>572</v>
+      </c>
+      <c r="G25">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>16406</v>
+      </c>
+      <c r="E26">
+        <v>153</v>
+      </c>
+      <c r="F26">
+        <v>793</v>
+      </c>
+      <c r="G26">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>261</v>
+      </c>
+      <c r="E27">
+        <v>7272</v>
+      </c>
+      <c r="F27">
+        <v>1479</v>
+      </c>
+      <c r="G27">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>234</v>
+      </c>
+      <c r="D28">
+        <v>2547</v>
+      </c>
+      <c r="E28">
+        <v>6788</v>
+      </c>
+      <c r="F28">
+        <v>35744</v>
+      </c>
+      <c r="G28">
+        <v>11862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>178</v>
+      </c>
+      <c r="D29">
+        <v>801</v>
+      </c>
+      <c r="E29">
+        <v>436</v>
+      </c>
+      <c r="F29">
+        <v>2350</v>
+      </c>
+      <c r="G29">
+        <v>1647</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106DC6E-F050-2742-AC72-2E61A435E5FB}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.87380000000000002</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.91069999999999995</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.96479999999999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.60580000000000001</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.60270000000000001</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.937874945343244</v>
+      </c>
+      <c r="C15">
+        <v>0.98688237866200301</v>
+      </c>
+      <c r="D15">
+        <v>0.62516834280717104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.47691130198146098</v>
+      </c>
+      <c r="D16">
+        <v>0.61841993366782899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.57822663471413904</v>
+      </c>
+      <c r="C17">
+        <v>0.69085929476206798</v>
+      </c>
+      <c r="D17">
+        <v>0.48784662786716898</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.841732790049324</v>
+      </c>
+      <c r="D18">
+        <v>0.87958395882479101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>3.1596452328159601E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.30432372505543198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.78880553103854101</v>
+      </c>
+      <c r="C23">
+        <v>0.62528396812907905</v>
+      </c>
+      <c r="D23">
+        <v>0.87312521373784702</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.66587508905248205</v>
+      </c>
+      <c r="D24">
+        <v>0.48940036341611098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.81771968046477805</v>
+      </c>
+      <c r="C25">
+        <v>0.46924776188815298</v>
+      </c>
+      <c r="D25">
+        <v>0.86259079903147695</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.88014351384684397</v>
+      </c>
+      <c r="D26">
+        <v>0.78127529882375302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0.36460554371002102</v>
+      </c>
+      <c r="D27">
+        <v>8.7886872998932802E-2</v>
       </c>
     </row>
   </sheetData>

--- a/output/results/results hierarchichal vs bisg full_sample.xlsx
+++ b/output/results/results hierarchichal vs bisg full_sample.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamariapatron/Desktop/GRI/cascade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D8B03EF-5563-CF49-9D57-5FA084403E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD4D77A-4B63-2E48-AD49-31A86C95B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
+    <workbookView xWindow="11440" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
   </bookViews>
   <sheets>
     <sheet name="CMcounty" sheetId="1" r:id="rId1"/>
     <sheet name="metrics_county" sheetId="2" r:id="rId2"/>
     <sheet name="CMtract" sheetId="3" r:id="rId3"/>
     <sheet name="metrics_tract" sheetId="4" r:id="rId4"/>
+    <sheet name="CM_tract_first" sheetId="5" r:id="rId5"/>
+    <sheet name="metrics_tract_first" sheetId="6" r:id="rId6"/>
+    <sheet name="CM_tract_first_white_black" sheetId="7" r:id="rId7"/>
+    <sheet name="metrics_tract_first_white_black" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="28">
   <si>
     <t>PREDICTED</t>
   </si>
@@ -111,6 +115,18 @@
   </si>
   <si>
     <t>metrics for full_sample. Tract level, only surname</t>
+  </si>
+  <si>
+    <t>confusion matrix for full sample. Tract_level, surname and first for all</t>
+  </si>
+  <si>
+    <t>metrics for full_sample. Tract level, surname and first for all group</t>
+  </si>
+  <si>
+    <t>confusion matrix for full sample. Tract_level, surname and first for  white and black and only surname for asian, hispanic and other</t>
+  </si>
+  <si>
+    <t>metrics for full_sample. Tract level, surname and first name for  white and black and only surname for asian, hispanic and other</t>
   </si>
 </sst>
 </file>
@@ -190,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -201,6 +217,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -366,6 +383,252 @@
             <a:rPr lang="en-GB" sz="1100" baseline="0"/>
             <a:t>there</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB618C0-3380-D242-967E-1F5963A38149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6718300" y="596900"/>
+          <a:ext cx="7086600" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>hierarchical cutting leafs leads to a significantely gain in the predictions regarding the minority groups...however for white group the performance decrease a little bit...it's a trade off where whites are loosing and minorities are gaining</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Also, the treshold is 0.7,  if probability of being white vs nn white is less than 0.7 then the model goes to the next layer. So stablishing a higher value would help to reduce the 'lost' in white's performance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>The layers are</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>1. White vs non white</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2. asian vs non asian</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>3. black vs non black</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>4. other </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CDFD58F-27FB-8342-8498-C669A4661CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6718300" y="596900"/>
+          <a:ext cx="7086600" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>hierarchical cutting leafs leads to a significantely gain in the predictions regarding the minority groups...however for white group the performance decrease a little bit...it's a trade off where whites are loosing and minorities are gaining</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>Also, the treshold is 0.7,  if probability of being white vs nn white is less than 0.7 then the model goes to the next layer. So stablishing a higher value would help to reduce the 'lost' in white's performance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>The layers are</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>1. White vs non white</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>2. asian vs non asian</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>3. black vs non black</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+            <a:t>4. other </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -705,11 +968,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -849,11 +1112,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -948,11 +1211,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1374,7 +1637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2E7C1-6835-D54E-88BD-C2C2FC696365}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1386,11 +1649,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1530,11 +1793,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1629,11 +1892,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2049,4 +2312,1366 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAB4DF7-4821-B940-A91E-8F0B9FEE980D}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3113</v>
+      </c>
+      <c r="D5">
+        <v>173</v>
+      </c>
+      <c r="E5">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>2319</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>756</v>
+      </c>
+      <c r="D6" s="8">
+        <v>4604</v>
+      </c>
+      <c r="E6">
+        <v>601</v>
+      </c>
+      <c r="F6">
+        <v>12414</v>
+      </c>
+      <c r="G6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>173</v>
+      </c>
+      <c r="D7">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2106</v>
+      </c>
+      <c r="F7">
+        <v>9150</v>
+      </c>
+      <c r="G7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <v>42</v>
+      </c>
+      <c r="E8">
+        <v>137</v>
+      </c>
+      <c r="F8" s="8">
+        <v>56528</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>346</v>
+      </c>
+      <c r="D9">
+        <v>72</v>
+      </c>
+      <c r="E9">
+        <v>166</v>
+      </c>
+      <c r="F9">
+        <v>4553</v>
+      </c>
+      <c r="G9" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>3879</v>
+      </c>
+      <c r="F15">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3825</v>
+      </c>
+      <c r="F16">
+        <v>14837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>1114</v>
+      </c>
+      <c r="F17">
+        <v>10652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>617</v>
+      </c>
+      <c r="F18">
+        <v>56699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>949</v>
+      </c>
+      <c r="F19">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>3103</v>
+      </c>
+      <c r="D25">
+        <v>948</v>
+      </c>
+      <c r="E25">
+        <v>275</v>
+      </c>
+      <c r="F25">
+        <v>672</v>
+      </c>
+      <c r="G25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>86</v>
+      </c>
+      <c r="D26" s="8">
+        <v>15308</v>
+      </c>
+      <c r="E26">
+        <v>923</v>
+      </c>
+      <c r="F26">
+        <v>604</v>
+      </c>
+      <c r="G26">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>124</v>
+      </c>
+      <c r="D27">
+        <v>228</v>
+      </c>
+      <c r="E27" s="8">
+        <v>6540</v>
+      </c>
+      <c r="F27">
+        <v>2130</v>
+      </c>
+      <c r="G27">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>440</v>
+      </c>
+      <c r="D28">
+        <v>1274</v>
+      </c>
+      <c r="E28">
+        <v>2861</v>
+      </c>
+      <c r="F28" s="8">
+        <v>48983</v>
+      </c>
+      <c r="G28">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>383</v>
+      </c>
+      <c r="D29">
+        <v>587</v>
+      </c>
+      <c r="E29">
+        <v>683</v>
+      </c>
+      <c r="F29">
+        <v>2132</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1405</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF96EB8-8709-274A-9DB3-1B11A438E852}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.9214</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.93269999999999997</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.71779999999999999</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.88390000000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.87450000000000006</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.64410000000000001</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.66369999999999996</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.99375911959636398</v>
+      </c>
+      <c r="C15">
+        <v>0.98957509273420896</v>
+      </c>
+      <c r="D15">
+        <v>0.86111843608811101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.18333768607991599</v>
+      </c>
+      <c r="D16">
+        <v>0.56933925306868605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.54623618178627797</v>
+      </c>
+      <c r="C17">
+        <v>0.67134585014914905</v>
+      </c>
+      <c r="D17">
+        <v>0.54448148798034701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8">
+        <v>0.250190196717748</v>
+      </c>
+      <c r="D18">
+        <v>0.83186610151070495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1.02119460500963E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.270712909441233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.66531707546725705</v>
+      </c>
+      <c r="C23">
+        <v>0.64268995832619702</v>
+      </c>
+      <c r="D23">
+        <v>0.89842446029970102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.68111254851228997</v>
+      </c>
+      <c r="D24">
+        <v>0.57968445311115002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.68297498903027598</v>
+      </c>
+      <c r="C25">
+        <v>0.37971417229059201</v>
+      </c>
+      <c r="D25">
+        <v>0.75024177949709903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.93615290768605097</v>
+      </c>
+      <c r="D26">
+        <v>0.83445080403379701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0.41085271317829503</v>
+      </c>
+      <c r="D27">
+        <v>0.149834701930255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACB1F66-6EB2-1B4B-950C-B9E394F3C86A}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3482</v>
+      </c>
+      <c r="D5">
+        <v>706</v>
+      </c>
+      <c r="E5">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>1384</v>
+      </c>
+      <c r="G5">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>16042</v>
+      </c>
+      <c r="E6">
+        <v>338</v>
+      </c>
+      <c r="F6">
+        <v>1635</v>
+      </c>
+      <c r="G6">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>84</v>
+      </c>
+      <c r="D7">
+        <v>277</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1957</v>
+      </c>
+      <c r="F7">
+        <v>8382</v>
+      </c>
+      <c r="G7">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>333</v>
+      </c>
+      <c r="D8">
+        <v>1027</v>
+      </c>
+      <c r="E8">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>55262</v>
+      </c>
+      <c r="G8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>401</v>
+      </c>
+      <c r="D9">
+        <v>636</v>
+      </c>
+      <c r="E9">
+        <v>138</v>
+      </c>
+      <c r="F9">
+        <v>3739</v>
+      </c>
+      <c r="G9" s="8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>3837</v>
+      </c>
+      <c r="F15">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>2333</v>
+      </c>
+      <c r="F16">
+        <v>16329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>402</v>
+      </c>
+      <c r="F17">
+        <v>11364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>382</v>
+      </c>
+      <c r="F18">
+        <v>56934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>699</v>
+      </c>
+      <c r="F19">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>2791</v>
+      </c>
+      <c r="D25">
+        <v>950</v>
+      </c>
+      <c r="E25">
+        <v>291</v>
+      </c>
+      <c r="F25">
+        <v>679</v>
+      </c>
+      <c r="G25">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>16013</v>
+      </c>
+      <c r="E26">
+        <v>1007</v>
+      </c>
+      <c r="F26">
+        <v>608</v>
+      </c>
+      <c r="G26">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>232</v>
+      </c>
+      <c r="E27" s="8">
+        <v>6599</v>
+      </c>
+      <c r="F27">
+        <v>2139</v>
+      </c>
+      <c r="G27">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>191</v>
+      </c>
+      <c r="D28">
+        <v>1402</v>
+      </c>
+      <c r="E28">
+        <v>2895</v>
+      </c>
+      <c r="F28">
+        <v>49063</v>
+      </c>
+      <c r="G28">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>167</v>
+      </c>
+      <c r="D29">
+        <v>804</v>
+      </c>
+      <c r="E29">
+        <v>718</v>
+      </c>
+      <c r="F29">
+        <v>2150</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1406</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C22:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824A1AE-A9DB-D743-9DAF-E9FE9D59600E}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.9123</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.93259999999999998</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.86680000000000001</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.68149999999999999</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.91510000000000002</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.67779999999999996</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.969695906227518</v>
+      </c>
+      <c r="C15">
+        <v>0.99341978276509502</v>
+      </c>
+      <c r="D15">
+        <v>0.86092052852304801</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.16945190059745399</v>
+      </c>
+      <c r="D16">
+        <v>0.57139146246428296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.60693742374063098</v>
+      </c>
+      <c r="C17">
+        <v>0.66376154784730701</v>
+      </c>
+      <c r="D17">
+        <v>0.48649119748997699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0.86732266435986205</v>
+      </c>
+      <c r="D18">
+        <v>0.86575475778546696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6.3107721639656805E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.26806482364156298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.78494929121331802</v>
+      </c>
+      <c r="C23">
+        <v>0.62576958362348201</v>
+      </c>
+      <c r="D23">
+        <v>0.89794835190980804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>0.75501543209876498</v>
+      </c>
+      <c r="D24">
+        <v>0.57332754126846197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.78036754818467102</v>
+      </c>
+      <c r="C25">
+        <v>0.50470510271703095</v>
+      </c>
+      <c r="D25">
+        <v>0.87464744594171095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>0.85841181506849296</v>
+      </c>
+      <c r="D26">
+        <v>0.82536982629761402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>0.17681623931623899</v>
+      </c>
+      <c r="D27">
+        <v>0.15159029649595701</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output/results/results hierarchichal vs bisg full_sample.xlsx
+++ b/output/results/results hierarchichal vs bisg full_sample.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anamariapatron/Desktop/GRI/cascade/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD4D77A-4B63-2E48-AD49-31A86C95B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1783C4AE-4D7A-314C-9F9D-0C8526625937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{11842B35-267D-CF4B-A691-2EFF1C0A1132}"/>
   </bookViews>
   <sheets>
-    <sheet name="CMcounty" sheetId="1" r:id="rId1"/>
-    <sheet name="metrics_county" sheetId="2" r:id="rId2"/>
-    <sheet name="CMtract" sheetId="3" r:id="rId3"/>
-    <sheet name="metrics_tract" sheetId="4" r:id="rId4"/>
-    <sheet name="CM_tract_first" sheetId="5" r:id="rId5"/>
-    <sheet name="metrics_tract_first" sheetId="6" r:id="rId6"/>
-    <sheet name="CM_tract_first_white_black" sheetId="7" r:id="rId7"/>
-    <sheet name="metrics_tract_first_white_black" sheetId="8" r:id="rId8"/>
+    <sheet name="CMtract" sheetId="3" r:id="rId1"/>
+    <sheet name="metrics_tract" sheetId="4" r:id="rId2"/>
+    <sheet name="CM_tract_first" sheetId="5" r:id="rId3"/>
+    <sheet name="metrics_tract_first" sheetId="6" r:id="rId4"/>
+    <sheet name="CM_tract_first_white_black" sheetId="7" r:id="rId5"/>
+    <sheet name="metrics_tract_first_white_black" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="26">
   <si>
     <t>PREDICTED</t>
   </si>
@@ -103,12 +101,6 @@
   </si>
   <si>
     <t>hierarchical: multypling leafs</t>
-  </si>
-  <si>
-    <t>confusion matrix for full sample. County level, only surname</t>
-  </si>
-  <si>
-    <t>metrics for fullsample. County level, only surname</t>
   </si>
   <si>
     <t>confusion matrix for full sample. Tract_level, only surname</t>
@@ -206,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -217,7 +209,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,81 +230,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57FA5DF-9EFC-9643-A113-97DB38A9E8B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6718300" y="596900"/>
-          <a:ext cx="7086600" cy="2476500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-GB" sz="1100" baseline="0"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -378,12 +294,6 @@
         <a:p>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1100" baseline="0"/>
-            <a:t>there</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -391,7 +301,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -514,7 +424,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -953,11 +863,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6381FF8D-2B62-A64E-9916-093C2BDB691A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2E7C1-6835-D54E-88BD-C2C2FC696365}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -968,11 +878,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1010,19 +920,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3398</v>
+        <v>3378</v>
       </c>
       <c r="D5">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="E5">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F5">
-        <v>1696</v>
+        <v>1643</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1031,19 +941,19 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>173</v>
+        <v>120</v>
       </c>
       <c r="D6">
-        <v>15506</v>
+        <v>15700</v>
       </c>
       <c r="E6">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="F6">
-        <v>2850</v>
+        <v>2589</v>
       </c>
       <c r="G6">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1054,19 +964,19 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E7">
-        <v>4054</v>
+        <v>5608</v>
       </c>
       <c r="F7">
-        <v>7608</v>
+        <v>5988</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,19 +985,19 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="D8">
-        <v>1077</v>
+        <v>915</v>
       </c>
       <c r="E8">
-        <v>2360</v>
+        <v>2229</v>
       </c>
       <c r="F8">
-        <v>53495</v>
+        <v>53623</v>
       </c>
       <c r="G8">
-        <v>61</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1096,27 +1006,27 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="D9">
-        <v>666</v>
+        <v>486</v>
       </c>
       <c r="E9">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="F9">
-        <v>4124</v>
+        <v>4137</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1154,10 +1064,10 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>3853</v>
+        <v>3704</v>
       </c>
       <c r="F15">
-        <v>2001</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1166,10 +1076,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>3131</v>
+        <v>2381</v>
       </c>
       <c r="F16">
-        <v>15531</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,10 +1090,10 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F17">
-        <v>11688</v>
+        <v>11692</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1192,10 +1102,10 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>571</v>
+        <v>434</v>
       </c>
       <c r="F18">
-        <v>56745</v>
+        <v>56882</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1204,18 +1114,18 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>595</v>
+        <v>481</v>
       </c>
       <c r="F19">
-        <v>4835</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1253,19 +1163,19 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>2829</v>
+        <v>3223</v>
       </c>
       <c r="D25">
-        <v>902</v>
+        <v>805</v>
       </c>
       <c r="E25">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="F25">
-        <v>604</v>
+        <v>1135</v>
       </c>
       <c r="G25">
-        <v>1250</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1274,19 +1184,19 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>16084</v>
+        <v>16060</v>
       </c>
       <c r="E26">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="F26">
-        <v>1122</v>
+        <v>1656</v>
       </c>
       <c r="G26">
-        <v>1153</v>
+        <v>693</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1297,19 +1207,19 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>349</v>
+        <v>144</v>
       </c>
       <c r="E27">
-        <v>7712</v>
+        <v>6335</v>
       </c>
       <c r="F27">
-        <v>1429</v>
+        <v>4115</v>
       </c>
       <c r="G27">
-        <v>2266</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1318,19 +1228,19 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="D28">
-        <v>4752</v>
+        <v>1357</v>
       </c>
       <c r="E28">
-        <v>10743</v>
+        <v>3815</v>
       </c>
       <c r="F28">
-        <v>29894</v>
+        <v>48786</v>
       </c>
       <c r="G28">
-        <v>11732</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1339,19 +1249,19 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="D29">
-        <v>1227</v>
+        <v>609</v>
       </c>
       <c r="E29">
-        <v>556</v>
+        <v>411</v>
       </c>
       <c r="F29">
-        <v>2121</v>
+        <v>3443</v>
       </c>
       <c r="G29">
-        <v>1353</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -1366,11 +1276,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9625C5-279F-2E41-A596-3DCFD1F5B6BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106DC6E-F050-2742-AC72-2E61A435E5FB}">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1423,10 +1333,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>0.8458</v>
+        <v>0.87980000000000003</v>
       </c>
       <c r="C7" s="6">
-        <v>0.84209999999999996</v>
+        <v>0.87409999999999999</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -1435,10 +1345,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>0.86450000000000005</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="C8" s="6">
-        <v>0.69920000000000004</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -1447,10 +1357,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.89510000000000001</v>
+        <v>0.91069999999999995</v>
       </c>
       <c r="C9" s="6">
-        <v>0.89510000000000001</v>
+        <v>0.90859999999999996</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -1459,10 +1369,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6">
-        <v>0.93679999999999997</v>
+        <v>0.96479999999999999</v>
       </c>
       <c r="C10" s="6">
-        <v>0.69489999999999996</v>
+        <v>0.70620000000000005</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -1471,10 +1381,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>0.53849999999999998</v>
+        <v>0.60580000000000001</v>
       </c>
       <c r="C11" s="6">
-        <v>0.57240000000000002</v>
+        <v>0.61080000000000001</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -1497,13 +1407,13 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>0.93333449647567901</v>
+        <v>0.937874945343244</v>
       </c>
       <c r="C15">
-        <v>0.99003768581199003</v>
+        <v>0.99242675994752905</v>
       </c>
       <c r="D15">
-        <v>0.521564659082979</v>
+        <v>0.85327503279405303</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1511,10 +1421,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0.34455209926907998</v>
+        <v>0.47691130198146098</v>
       </c>
       <c r="D16">
-        <v>0.65544790073091996</v>
+        <v>0.53873628709924304</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1522,13 +1432,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0.58045780662794699</v>
+        <v>0.57822663471413904</v>
       </c>
       <c r="C17">
-        <v>0.65818243935770404</v>
+        <v>0.63351591920575101</v>
       </c>
       <c r="D17">
-        <v>0.483259309873591</v>
+        <v>0.55169462512838097</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1536,10 +1446,10 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.83088629300182204</v>
+        <v>0.841732790049324</v>
       </c>
       <c r="D18">
-        <v>0.86185832172328802</v>
+        <v>0.86103366931160197</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1547,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>5.7090239410681398E-3</v>
+        <v>3.1596452328159601E-2</v>
       </c>
       <c r="D19">
-        <v>0.249171270718232</v>
+        <v>0.12527716186252799</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1572,13 +1482,13 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.76670058618663395</v>
+        <v>0.78880553103854101</v>
       </c>
       <c r="C23">
-        <v>0.62494493392070505</v>
+        <v>0.61830663615560599</v>
       </c>
       <c r="D23">
-        <v>0.84998578333807195</v>
+        <v>0.82499365857783002</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1586,10 +1496,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>0.58881626724764002</v>
+        <v>0.66587508905248205</v>
       </c>
       <c r="D24">
-        <v>0.39443535188216</v>
+        <v>0.57885599415204703</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1597,13 +1507,13 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>0.79318394024276395</v>
+        <v>0.81771968046477805</v>
       </c>
       <c r="C25">
-        <v>0.46827904715605301</v>
+        <v>0.52347949080622302</v>
       </c>
       <c r="D25">
-        <v>0.87368746139592302</v>
+        <v>0.83540694660445802</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1611,10 +1521,10 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.86427735354774005</v>
+        <v>0.88014351384684397</v>
       </c>
       <c r="D26">
-        <v>0.68988590546452799</v>
+        <v>0.84637681159420297</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1622,10 +1532,10 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0.21379310344827601</v>
+        <v>0.36460554371002102</v>
       </c>
       <c r="D27">
-        <v>7.6208178438661706E-2</v>
+        <v>0.114372469635628</v>
       </c>
     </row>
   </sheetData>
@@ -1634,11 +1544,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03D2E7C1-6835-D54E-88BD-C2C2FC696365}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAB4DF7-4821-B940-A91E-8F0B9FEE980D}">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1649,11 +1559,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -1691,19 +1601,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3378</v>
+        <v>3113</v>
       </c>
       <c r="D5">
-        <v>659</v>
+        <v>173</v>
       </c>
       <c r="E5">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F5">
-        <v>1643</v>
+        <v>2319</v>
       </c>
       <c r="G5">
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1712,19 +1622,19 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>756</v>
       </c>
       <c r="D6">
-        <v>15700</v>
+        <v>4604</v>
       </c>
       <c r="E6">
-        <v>177</v>
+        <v>601</v>
       </c>
       <c r="F6">
-        <v>2589</v>
+        <v>12414</v>
       </c>
       <c r="G6">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1735,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D7">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>5608</v>
+        <v>2106</v>
       </c>
       <c r="F7">
-        <v>5988</v>
+        <v>9150</v>
       </c>
       <c r="G7">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1756,19 +1666,19 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>283</v>
+        <v>170</v>
       </c>
       <c r="D8">
-        <v>915</v>
+        <v>42</v>
       </c>
       <c r="E8">
-        <v>2229</v>
+        <v>137</v>
       </c>
       <c r="F8">
-        <v>53623</v>
+        <v>56528</v>
       </c>
       <c r="G8">
-        <v>125</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1777,27 +1687,27 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="D9">
-        <v>486</v>
+        <v>72</v>
       </c>
       <c r="E9">
-        <v>297</v>
+        <v>166</v>
       </c>
       <c r="F9">
-        <v>4137</v>
+        <v>4553</v>
       </c>
       <c r="G9">
-        <v>171</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1835,10 +1745,10 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>4039</v>
+        <v>3467</v>
       </c>
       <c r="F15">
-        <v>1815</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1847,10 +1757,10 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>3048</v>
+        <v>3192</v>
       </c>
       <c r="F16">
-        <v>15614</v>
+        <v>15470</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1861,10 +1771,10 @@
         <v>8</v>
       </c>
       <c r="C17">
-        <v>150</v>
+        <v>894</v>
       </c>
       <c r="F17">
-        <v>11616</v>
+        <v>10872</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1873,10 +1783,10 @@
         <v>9</v>
       </c>
       <c r="C18">
-        <v>752</v>
+        <v>320</v>
       </c>
       <c r="F18">
-        <v>56564</v>
+        <v>56996</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1885,18 +1795,18 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>617</v>
+        <v>715</v>
       </c>
       <c r="F19">
-        <v>4813</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -1934,19 +1844,19 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>2850</v>
+        <v>3219</v>
       </c>
       <c r="D25">
-        <v>984</v>
+        <v>669</v>
       </c>
       <c r="E25">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="F25">
-        <v>572</v>
+        <v>1254</v>
       </c>
       <c r="G25">
-        <v>1226</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1955,19 +1865,19 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="D26">
-        <v>16406</v>
+        <v>14658</v>
       </c>
       <c r="E26">
-        <v>153</v>
+        <v>975</v>
       </c>
       <c r="F26">
-        <v>793</v>
+        <v>1463</v>
       </c>
       <c r="G26">
-        <v>1268</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1978,19 +1888,19 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="D27">
-        <v>261</v>
+        <v>147</v>
       </c>
       <c r="E27">
-        <v>7272</v>
+        <v>5330</v>
       </c>
       <c r="F27">
-        <v>1479</v>
+        <v>4690</v>
       </c>
       <c r="G27">
-        <v>2737</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1999,19 +1909,19 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>234</v>
+        <v>332</v>
       </c>
       <c r="D28">
-        <v>2547</v>
+        <v>726</v>
       </c>
       <c r="E28">
-        <v>6788</v>
+        <v>1048</v>
       </c>
       <c r="F28">
-        <v>35744</v>
+        <v>54187</v>
       </c>
       <c r="G28">
-        <v>11862</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2020,19 +1930,19 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>178</v>
+        <v>467</v>
       </c>
       <c r="D29">
-        <v>801</v>
+        <v>431</v>
       </c>
       <c r="E29">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="F29">
-        <v>2350</v>
+        <v>3151</v>
       </c>
       <c r="G29">
-        <v>1647</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -2047,11 +1957,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8106DC6E-F050-2742-AC72-2E61A435E5FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF96EB8-8709-274A-9DB3-1B11A438E852}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2104,10 +2014,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>0.87980000000000003</v>
+        <v>0.9214</v>
       </c>
       <c r="C7" s="6">
-        <v>0.87380000000000002</v>
+        <v>0.93279999999999996</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -2116,10 +2026,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>0.89359999999999995</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="C8" s="6">
-        <v>0.64039999999999997</v>
+        <v>0.74960000000000004</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -2128,10 +2038,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.91069999999999995</v>
+        <v>0.88390000000000002</v>
       </c>
       <c r="C9" s="6">
-        <v>0.90500000000000003</v>
+        <v>0.876</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -2140,10 +2050,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6">
-        <v>0.96479999999999999</v>
+        <v>0.94159999999999999</v>
       </c>
       <c r="C10" s="6">
-        <v>0.58989999999999998</v>
+        <v>0.73219999999999996</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -2152,10 +2062,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>0.60580000000000001</v>
+        <v>0.66369999999999996</v>
       </c>
       <c r="C11" s="6">
-        <v>0.60270000000000001</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -2178,13 +2088,13 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>0.937874945343244</v>
+        <v>0.99375911959636398</v>
       </c>
       <c r="C15">
-        <v>0.98688237866200301</v>
+        <v>0.99458537700191596</v>
       </c>
       <c r="D15">
-        <v>0.62516834280717104</v>
+        <v>0.95260446882196803</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -2192,10 +2102,10 @@
         <v>3</v>
       </c>
       <c r="B16">
-        <v>0.47691130198146098</v>
+        <v>0.18333768607991599</v>
       </c>
       <c r="D16">
-        <v>0.61841993366782899</v>
+        <v>0.46400278575781301</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2203,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0.57822663471413904</v>
+        <v>0.54623618178627797</v>
       </c>
       <c r="C17">
-        <v>0.69085929476206798</v>
+        <v>0.60028075100894895</v>
       </c>
       <c r="D17">
-        <v>0.48784662786716898</v>
+        <v>0.56483593612914595</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2217,10 +2127,10 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>0.841732790049324</v>
+        <v>0.250190196717748</v>
       </c>
       <c r="D18">
-        <v>0.87958395882479101</v>
+        <v>0.79654385392892102</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,10 +2138,10 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>3.1596452328159601E-2</v>
+        <v>1.02119460500963E-2</v>
       </c>
       <c r="D19">
-        <v>0.30432372505543198</v>
+        <v>0.121579961464355</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,13 +2163,13 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.78880553103854101</v>
+        <v>0.66531707546725705</v>
       </c>
       <c r="C23">
-        <v>0.62528396812907905</v>
+        <v>0.63329751270512902</v>
       </c>
       <c r="D23">
-        <v>0.87312521373784702</v>
+        <v>0.83692949262491301</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2267,10 +2177,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>0.66587508905248205</v>
+        <v>0.68111254851228997</v>
       </c>
       <c r="D24">
-        <v>0.48940036341611098</v>
+        <v>0.65688932708898196</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2278,13 +2188,13 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>0.81771968046477805</v>
+        <v>0.68297498903027598</v>
       </c>
       <c r="C25">
-        <v>0.46924776188815298</v>
+        <v>0.41083223249669698</v>
       </c>
       <c r="D25">
-        <v>0.86259079903147695</v>
+        <v>0.72385878120080904</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2292,10 +2202,10 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.88014351384684397</v>
+        <v>0.93615290768605097</v>
       </c>
       <c r="D26">
-        <v>0.78127529882375302</v>
+        <v>0.88136612350429899</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2303,10 +2213,10 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0.36460554371002102</v>
+        <v>0.41085271317829503</v>
       </c>
       <c r="D27">
-        <v>8.7886872998932802E-2</v>
+        <v>0.16944146079484401</v>
       </c>
     </row>
   </sheetData>
@@ -2315,11 +2225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAB4DF7-4821-B940-A91E-8F0B9FEE980D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACB1F66-6EB2-1B4B-950C-B9E394F3C86A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView zoomScale="119" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2330,11 +2240,11 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2372,19 +2282,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3113</v>
+        <v>3482</v>
       </c>
       <c r="D5">
-        <v>173</v>
+        <v>706</v>
       </c>
       <c r="E5">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>2319</v>
+        <v>1384</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2393,19 +2303,19 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>756</v>
-      </c>
-      <c r="D6" s="8">
-        <v>4604</v>
+        <v>162</v>
+      </c>
+      <c r="D6">
+        <v>16042</v>
       </c>
       <c r="E6">
-        <v>601</v>
+        <v>338</v>
       </c>
       <c r="F6">
-        <v>12414</v>
+        <v>1635</v>
       </c>
       <c r="G6">
-        <v>27</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -2416,19 +2326,19 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>27</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2106</v>
+        <v>277</v>
+      </c>
+      <c r="E7">
+        <v>1957</v>
       </c>
       <c r="F7">
-        <v>9150</v>
+        <v>8382</v>
       </c>
       <c r="G7">
-        <v>31</v>
+        <v>849</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2437,19 +2347,19 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>170</v>
+        <v>333</v>
       </c>
       <c r="D8">
-        <v>42</v>
+        <v>1027</v>
       </c>
       <c r="E8">
-        <v>137</v>
-      </c>
-      <c r="F8" s="8">
-        <v>56528</v>
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>55262</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2458,27 +2368,27 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="D9">
-        <v>72</v>
+        <v>636</v>
       </c>
       <c r="E9">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="F9">
-        <v>4553</v>
-      </c>
-      <c r="G9" s="8">
-        <v>53</v>
+        <v>3739</v>
+      </c>
+      <c r="G9">
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -2515,11 +2425,11 @@
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15">
-        <v>3879</v>
+      <c r="C15" s="1">
+        <v>3418</v>
       </c>
       <c r="F15">
-        <v>1975</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2527,11 +2437,11 @@
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
-        <v>3825</v>
+      <c r="C16" s="1">
+        <v>1831</v>
       </c>
       <c r="F16">
-        <v>14837</v>
+        <v>16831</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2541,11 +2451,11 @@
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17">
-        <v>1114</v>
+      <c r="C17" s="1">
+        <v>335</v>
       </c>
       <c r="F17">
-        <v>10652</v>
+        <v>11431</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2553,11 +2463,11 @@
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
-        <v>617</v>
+      <c r="C18" s="1">
+        <v>232</v>
       </c>
       <c r="F18">
-        <v>56699</v>
+        <v>57084</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2565,19 +2475,19 @@
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
-        <v>949</v>
+      <c r="C19" s="1">
+        <v>535</v>
       </c>
       <c r="F19">
-        <v>4481</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
@@ -2615,19 +2525,19 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>3103</v>
+        <v>3060</v>
       </c>
       <c r="D25">
-        <v>948</v>
+        <v>748</v>
       </c>
       <c r="E25">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="F25">
-        <v>672</v>
+        <v>1263</v>
       </c>
       <c r="G25">
-        <v>701</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2636,19 +2546,19 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>86</v>
-      </c>
-      <c r="D26" s="8">
-        <v>15308</v>
+        <v>65</v>
+      </c>
+      <c r="D26">
+        <v>15386</v>
       </c>
       <c r="E26">
-        <v>923</v>
+        <v>1045</v>
       </c>
       <c r="F26">
-        <v>604</v>
+        <v>1476</v>
       </c>
       <c r="G26">
-        <v>1481</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2659,19 +2569,19 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>228</v>
-      </c>
-      <c r="E27" s="8">
-        <v>6540</v>
+        <v>132</v>
+      </c>
+      <c r="E27">
+        <v>5422</v>
       </c>
       <c r="F27">
-        <v>2130</v>
+        <v>4705</v>
       </c>
       <c r="G27">
-        <v>2465</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -2680,19 +2590,19 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>440</v>
+        <v>202</v>
       </c>
       <c r="D28">
-        <v>1274</v>
+        <v>774</v>
       </c>
       <c r="E28">
-        <v>2861</v>
-      </c>
-      <c r="F28" s="8">
-        <v>48983</v>
+        <v>1085</v>
+      </c>
+      <c r="F28">
+        <v>54279</v>
       </c>
       <c r="G28">
-        <v>3325</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -2701,19 +2611,19 @@
         <v>5</v>
       </c>
       <c r="C29">
-        <v>383</v>
+        <v>239</v>
       </c>
       <c r="D29">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="E29">
-        <v>683</v>
+        <v>547</v>
       </c>
       <c r="F29">
-        <v>2132</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1405</v>
+        <v>3177</v>
+      </c>
+      <c r="G29">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -2728,11 +2638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF96EB8-8709-274A-9DB3-1B11A438E852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824A1AE-A9DB-D743-9DAF-E9FE9D59600E}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2785,7 +2695,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>0.9214</v>
+        <v>0.9123</v>
       </c>
       <c r="C7" s="6">
         <v>0.93269999999999997</v>
@@ -2797,10 +2707,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="6">
-        <v>0.84599999999999997</v>
+        <v>0.86680000000000001</v>
       </c>
       <c r="C8" s="6">
-        <v>0.71779999999999999</v>
+        <v>0.71530000000000005</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -2809,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="6">
-        <v>0.88390000000000002</v>
+        <v>0.91510000000000002</v>
       </c>
       <c r="C9" s="6">
-        <v>0.87450000000000006</v>
+        <v>0.91959999999999997</v>
       </c>
       <c r="D9" s="7"/>
     </row>
@@ -2821,10 +2731,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6">
-        <v>0.94159999999999999</v>
+        <v>0.97230000000000005</v>
       </c>
       <c r="C10" s="6">
-        <v>0.64410000000000001</v>
+        <v>0.77090000000000003</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -2833,10 +2743,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="6">
-        <v>0.66369999999999996</v>
+        <v>0.66139999999999999</v>
       </c>
       <c r="C11" s="6">
-        <v>0.60419999999999996</v>
+        <v>0.66410000000000002</v>
       </c>
       <c r="D11" s="7"/>
     </row>
@@ -2859,24 +2769,24 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>0.99375911959636398</v>
+        <v>0.969695906227518</v>
       </c>
       <c r="C15">
-        <v>0.98957509273420896</v>
+        <v>0.99601677516713705</v>
       </c>
       <c r="D15">
-        <v>0.86111843608811101</v>
+        <v>0.95244696344908697</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="8">
-        <v>0.18333768607991599</v>
+      <c r="B16">
+        <v>0.16945190059745399</v>
       </c>
       <c r="D16">
-        <v>0.56933925306868605</v>
+        <v>0.46947787687245701</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2884,24 +2794,24 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>0.54623618178627797</v>
+        <v>0.60693742374063098</v>
       </c>
       <c r="C17">
-        <v>0.67134585014914905</v>
+        <v>0.59072686072860403</v>
       </c>
       <c r="D17">
-        <v>0.54448148798034701</v>
+        <v>0.533379815234443</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="8">
-        <v>0.250190196717748</v>
+      <c r="B18">
+        <v>0.86732266435986205</v>
       </c>
       <c r="D18">
-        <v>0.83186610151070495</v>
+        <v>0.83185553633218001</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2909,10 +2819,10 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>1.02119460500963E-2</v>
+        <v>6.3107721639656805E-2</v>
       </c>
       <c r="D19">
-        <v>0.270712909441233</v>
+        <v>0.13155386081982801</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2934,13 +2844,13 @@
         <v>4</v>
       </c>
       <c r="B23">
-        <v>0.66531707546725705</v>
+        <v>0.78494929121331802</v>
       </c>
       <c r="C23">
-        <v>0.64268995832619702</v>
+        <v>0.61854479279043695</v>
       </c>
       <c r="D23">
-        <v>0.89842446029970102</v>
+        <v>0.83634822804314302</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2948,10 +2858,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>0.68111254851228997</v>
+        <v>0.75501543209876498</v>
       </c>
       <c r="D24">
-        <v>0.57968445311115002</v>
+        <v>0.64949688548155204</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2959,13 +2869,13 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>0.68297498903027598</v>
+        <v>0.78036754818467102</v>
       </c>
       <c r="C25">
-        <v>0.37971417229059201</v>
+        <v>0.54232677228356496</v>
       </c>
       <c r="D25">
-        <v>0.75024177949709903</v>
+        <v>0.85236768802228402</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2973,10 +2883,10 @@
         <v>2</v>
       </c>
       <c r="B26">
-        <v>0.93615290768605097</v>
+        <v>0.85841181506849296</v>
       </c>
       <c r="D26">
-        <v>0.83445080403379701</v>
+        <v>0.87261796733212305</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2984,691 +2894,10 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>0.41085271317829503</v>
+        <v>0.17681623931623899</v>
       </c>
       <c r="D27">
-        <v>0.149834701930255</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ACB1F66-6EB2-1B4B-950C-B9E394F3C86A}">
-  <dimension ref="A1:G29"/>
-  <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>3482</v>
-      </c>
-      <c r="D5">
-        <v>706</v>
-      </c>
-      <c r="E5">
-        <v>49</v>
-      </c>
-      <c r="F5">
-        <v>1384</v>
-      </c>
-      <c r="G5">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>162</v>
-      </c>
-      <c r="D6">
-        <v>16042</v>
-      </c>
-      <c r="E6">
-        <v>338</v>
-      </c>
-      <c r="F6">
-        <v>1635</v>
-      </c>
-      <c r="G6">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>84</v>
-      </c>
-      <c r="D7">
-        <v>277</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1957</v>
-      </c>
-      <c r="F7">
-        <v>8382</v>
-      </c>
-      <c r="G7">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>333</v>
-      </c>
-      <c r="D8">
-        <v>1027</v>
-      </c>
-      <c r="E8">
-        <v>110</v>
-      </c>
-      <c r="F8">
-        <v>55262</v>
-      </c>
-      <c r="G8">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>401</v>
-      </c>
-      <c r="D9">
-        <v>636</v>
-      </c>
-      <c r="E9">
-        <v>138</v>
-      </c>
-      <c r="F9">
-        <v>3739</v>
-      </c>
-      <c r="G9" s="8">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <v>3837</v>
-      </c>
-      <c r="F15">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>2333</v>
-      </c>
-      <c r="F16">
-        <v>16329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>402</v>
-      </c>
-      <c r="F17">
-        <v>11364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18">
-        <v>382</v>
-      </c>
-      <c r="F18">
-        <v>56934</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19">
-        <v>699</v>
-      </c>
-      <c r="F19">
-        <v>4731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25">
-        <v>2791</v>
-      </c>
-      <c r="D25">
-        <v>950</v>
-      </c>
-      <c r="E25">
-        <v>291</v>
-      </c>
-      <c r="F25">
-        <v>679</v>
-      </c>
-      <c r="G25">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>32</v>
-      </c>
-      <c r="D26">
-        <v>16013</v>
-      </c>
-      <c r="E26">
-        <v>1007</v>
-      </c>
-      <c r="F26">
-        <v>608</v>
-      </c>
-      <c r="G26">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27">
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <v>232</v>
-      </c>
-      <c r="E27" s="8">
-        <v>6599</v>
-      </c>
-      <c r="F27">
-        <v>2139</v>
-      </c>
-      <c r="G27">
-        <v>2569</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28">
-        <v>191</v>
-      </c>
-      <c r="D28">
-        <v>1402</v>
-      </c>
-      <c r="E28">
-        <v>2895</v>
-      </c>
-      <c r="F28">
-        <v>49063</v>
-      </c>
-      <c r="G28">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29">
-        <v>167</v>
-      </c>
-      <c r="D29">
-        <v>804</v>
-      </c>
-      <c r="E29">
-        <v>718</v>
-      </c>
-      <c r="F29">
-        <v>2150</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1406</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C22:E22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C824A1AE-A9DB-D743-9DAF-E9FE9D59600E}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>0.9123</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.93259999999999998</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6">
-        <v>0.86680000000000001</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.68149999999999999</v>
-      </c>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.91510000000000002</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.91920000000000002</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6">
-        <v>0.97230000000000005</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.67779999999999996</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6">
-        <v>0.66139999999999999</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15">
-        <v>0.969695906227518</v>
-      </c>
-      <c r="C15">
-        <v>0.99341978276509502</v>
-      </c>
-      <c r="D15">
-        <v>0.86092052852304801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="8">
-        <v>0.16945190059745399</v>
-      </c>
-      <c r="D16">
-        <v>0.57139146246428296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0.60693742374063098</v>
-      </c>
-      <c r="C17">
-        <v>0.66376154784730701</v>
-      </c>
-      <c r="D17">
-        <v>0.48649119748997699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>0.86732266435986205</v>
-      </c>
-      <c r="D18">
-        <v>0.86575475778546696</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8">
-        <v>6.3107721639656805E-2</v>
-      </c>
-      <c r="D19">
-        <v>0.26806482364156298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>0.78494929121331802</v>
-      </c>
-      <c r="C23">
-        <v>0.62576958362348201</v>
-      </c>
-      <c r="D23">
-        <v>0.89794835190980804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24">
-        <v>0.75501543209876498</v>
-      </c>
-      <c r="D24">
-        <v>0.57332754126846197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>0.78036754818467102</v>
-      </c>
-      <c r="C25">
-        <v>0.50470510271703095</v>
-      </c>
-      <c r="D25">
-        <v>0.87464744594171095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>0.85841181506849296</v>
-      </c>
-      <c r="D26">
-        <v>0.82536982629761402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27">
-        <v>0.17681623931623899</v>
-      </c>
-      <c r="D27">
-        <v>0.15159029649595701</v>
+        <v>0.19458544839255501</v>
       </c>
     </row>
   </sheetData>
